--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.408429333333333</v>
+        <v>8.371231</v>
       </c>
       <c r="H2">
-        <v>13.225288</v>
+        <v>25.113693</v>
       </c>
       <c r="I2">
-        <v>0.05980478019486077</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="J2">
-        <v>0.05980478019486075</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.68532233333334</v>
+        <v>2.769264333333334</v>
       </c>
       <c r="N2">
-        <v>59.05596700000001</v>
+        <v>8.307793</v>
       </c>
       <c r="O2">
-        <v>0.5039562241205586</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="P2">
-        <v>0.5039562241205585</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="Q2">
-        <v>86.78135241038845</v>
+        <v>23.18215143439433</v>
       </c>
       <c r="R2">
-        <v>781.0321716934961</v>
+        <v>208.639362909549</v>
       </c>
       <c r="S2">
-        <v>0.030138991211362</v>
+        <v>0.01413959746273705</v>
       </c>
       <c r="T2">
-        <v>0.03013899121136198</v>
+        <v>0.01413959746273705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.408429333333333</v>
+        <v>8.371231</v>
       </c>
       <c r="H3">
-        <v>13.225288</v>
+        <v>25.113693</v>
       </c>
       <c r="I3">
-        <v>0.05980478019486077</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="J3">
-        <v>0.05980478019486075</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.484487666666666</v>
+        <v>1.484487666666667</v>
       </c>
       <c r="N3">
-        <v>4.453462999999999</v>
+        <v>4.453463</v>
       </c>
       <c r="O3">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="P3">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="Q3">
-        <v>6.544258974704888</v>
+        <v>12.42698917431767</v>
       </c>
       <c r="R3">
-        <v>58.898330772344</v>
+        <v>111.842902568859</v>
       </c>
       <c r="S3">
-        <v>0.002272808134987034</v>
+        <v>0.007579651314758723</v>
       </c>
       <c r="T3">
-        <v>0.002272808134987033</v>
+        <v>0.007579651314758723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.408429333333333</v>
+        <v>8.371231</v>
       </c>
       <c r="H4">
-        <v>13.225288</v>
+        <v>25.113693</v>
       </c>
       <c r="I4">
-        <v>0.05980478019486077</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="J4">
-        <v>0.05980478019486075</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1249006666666667</v>
+        <v>0.1509683333333333</v>
       </c>
       <c r="N4">
-        <v>0.374702</v>
+        <v>0.452905</v>
       </c>
       <c r="O4">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="P4">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="Q4">
-        <v>0.5506157626862221</v>
+        <v>1.263790792018333</v>
       </c>
       <c r="R4">
-        <v>4.955541864176</v>
+        <v>11.374117128165</v>
       </c>
       <c r="S4">
-        <v>0.0001912277600141534</v>
+        <v>0.0007708297966572979</v>
       </c>
       <c r="T4">
-        <v>0.0001912277600141533</v>
+        <v>0.0007708297966572979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.408429333333333</v>
+        <v>8.371231</v>
       </c>
       <c r="H5">
-        <v>13.225288</v>
+        <v>25.113693</v>
       </c>
       <c r="I5">
-        <v>0.05980478019486077</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="J5">
-        <v>0.05980478019486075</v>
+        <v>0.1018690981095697</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.76686133333333</v>
+        <v>15.54651666666667</v>
       </c>
       <c r="N5">
-        <v>53.30058399999999</v>
+        <v>46.63955</v>
       </c>
       <c r="O5">
-        <v>0.4548424557345857</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="P5">
-        <v>0.4548424557345856</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="Q5">
-        <v>78.32395266313243</v>
+        <v>130.1434822620167</v>
       </c>
       <c r="R5">
-        <v>704.915573968192</v>
+        <v>1171.29134035815</v>
       </c>
       <c r="S5">
-        <v>0.02720175308849759</v>
+        <v>0.07937901953541664</v>
       </c>
       <c r="T5">
-        <v>0.02720175308849758</v>
+        <v>0.07937901953541664</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>168.460147</v>
       </c>
       <c r="I6">
-        <v>0.761777139592645</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="J6">
-        <v>0.7617771395926448</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.68532233333334</v>
+        <v>2.769264333333334</v>
       </c>
       <c r="N6">
-        <v>59.05596700000001</v>
+        <v>8.307793</v>
       </c>
       <c r="O6">
-        <v>0.5039562241205586</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="P6">
-        <v>0.5039562241205585</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="Q6">
-        <v>1105.397431338572</v>
+        <v>155.5035588917301</v>
       </c>
       <c r="R6">
-        <v>9948.576882047151</v>
+        <v>1399.532030025571</v>
       </c>
       <c r="S6">
-        <v>0.3839023308904691</v>
+        <v>0.09484700904377187</v>
       </c>
       <c r="T6">
-        <v>0.3839023308904689</v>
+        <v>0.09484700904377187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>168.460147</v>
       </c>
       <c r="I7">
-        <v>0.761777139592645</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="J7">
-        <v>0.7617771395926448</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.484487666666666</v>
+        <v>1.484487666666667</v>
       </c>
       <c r="N7">
-        <v>4.453462999999999</v>
+        <v>4.453463</v>
       </c>
       <c r="O7">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="P7">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="Q7">
-        <v>83.35900351545121</v>
+        <v>83.35900351545122</v>
       </c>
       <c r="R7">
-        <v>750.2310316390609</v>
+        <v>750.231031639061</v>
       </c>
       <c r="S7">
-        <v>0.02895041624218024</v>
+        <v>0.05084354478224282</v>
       </c>
       <c r="T7">
-        <v>0.02895041624218024</v>
+        <v>0.05084354478224282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>168.460147</v>
       </c>
       <c r="I8">
-        <v>0.761777139592645</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="J8">
-        <v>0.7617771395926448</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1249006666666667</v>
+        <v>0.1509683333333333</v>
       </c>
       <c r="N8">
-        <v>0.374702</v>
+        <v>0.452905</v>
       </c>
       <c r="O8">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="P8">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="Q8">
-        <v>7.013594889021555</v>
+        <v>8.477382541892778</v>
       </c>
       <c r="R8">
-        <v>63.122354001194</v>
+        <v>76.29644287703501</v>
       </c>
       <c r="S8">
-        <v>0.002435807565208788</v>
+        <v>0.005170649368727591</v>
       </c>
       <c r="T8">
-        <v>0.002435807565208787</v>
+        <v>0.005170649368727591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>168.460147</v>
       </c>
       <c r="I9">
-        <v>0.761777139592645</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="J9">
-        <v>0.7617771395926448</v>
+        <v>0.683327746432814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.76686133333333</v>
+        <v>15.54651666666667</v>
       </c>
       <c r="N9">
-        <v>53.30058399999999</v>
+        <v>46.63955</v>
       </c>
       <c r="O9">
-        <v>0.4548424557345857</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="P9">
-        <v>0.4548424557345856</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="Q9">
-        <v>997.669357313983</v>
+        <v>872.9894943348722</v>
       </c>
       <c r="R9">
-        <v>8979.024215825848</v>
+        <v>7856.905449013851</v>
       </c>
       <c r="S9">
-        <v>0.346488584894787</v>
+        <v>0.5324665432380717</v>
       </c>
       <c r="T9">
-        <v>0.3464885848947868</v>
+        <v>0.5324665432380717</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.36182833333333</v>
+        <v>16.77784</v>
       </c>
       <c r="H10">
-        <v>31.085485</v>
+        <v>50.33351999999999</v>
       </c>
       <c r="I10">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="J10">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.68532233333334</v>
+        <v>2.769264333333334</v>
       </c>
       <c r="N10">
-        <v>59.05596700000001</v>
+        <v>8.307793</v>
       </c>
       <c r="O10">
-        <v>0.5039562241205586</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="P10">
-        <v>0.5039562241205585</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="Q10">
-        <v>203.9759307043328</v>
+        <v>46.46227390237333</v>
       </c>
       <c r="R10">
-        <v>1835.783376338995</v>
+        <v>418.1604651213599</v>
       </c>
       <c r="S10">
-        <v>0.07084043532480541</v>
+        <v>0.02833895085372846</v>
       </c>
       <c r="T10">
-        <v>0.07084043532480538</v>
+        <v>0.02833895085372846</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.36182833333333</v>
+        <v>16.77784</v>
       </c>
       <c r="H11">
-        <v>31.085485</v>
+        <v>50.33351999999999</v>
       </c>
       <c r="I11">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="J11">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.484487666666666</v>
+        <v>1.484487666666667</v>
       </c>
       <c r="N11">
-        <v>4.453462999999999</v>
+        <v>4.453463</v>
       </c>
       <c r="O11">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="P11">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="Q11">
-        <v>15.38200636495055</v>
+        <v>24.90649655330666</v>
       </c>
       <c r="R11">
-        <v>138.438057284555</v>
+        <v>224.15846897976</v>
       </c>
       <c r="S11">
-        <v>0.005342140238308413</v>
+        <v>0.01519133530239597</v>
       </c>
       <c r="T11">
-        <v>0.005342140238308412</v>
+        <v>0.01519133530239597</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.36182833333333</v>
+        <v>16.77784</v>
       </c>
       <c r="H12">
-        <v>31.085485</v>
+        <v>50.33351999999999</v>
       </c>
       <c r="I12">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="J12">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1249006666666667</v>
+        <v>0.1509683333333333</v>
       </c>
       <c r="N12">
-        <v>0.374702</v>
+        <v>0.452905</v>
       </c>
       <c r="O12">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="P12">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="Q12">
-        <v>1.294199266718889</v>
+        <v>2.532922541733333</v>
       </c>
       <c r="R12">
-        <v>11.64779340047</v>
+        <v>22.7963028756</v>
       </c>
       <c r="S12">
-        <v>0.0004494728330682526</v>
+        <v>0.001544917228487504</v>
       </c>
       <c r="T12">
-        <v>0.0004494728330682524</v>
+        <v>0.001544917228487504</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.36182833333333</v>
+        <v>16.77784</v>
       </c>
       <c r="H13">
-        <v>31.085485</v>
+        <v>50.33351999999999</v>
       </c>
       <c r="I13">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="J13">
-        <v>0.1405686286510843</v>
+        <v>0.2041687093602677</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.76686133333333</v>
+        <v>15.54651666666667</v>
       </c>
       <c r="N13">
-        <v>53.30058399999999</v>
+        <v>46.63955</v>
       </c>
       <c r="O13">
-        <v>0.4548424557345857</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="P13">
-        <v>0.4548424557345856</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="Q13">
-        <v>184.0971671581378</v>
+        <v>260.8369691906667</v>
       </c>
       <c r="R13">
-        <v>1656.87450442324</v>
+        <v>2347.532722716</v>
       </c>
       <c r="S13">
-        <v>0.06393658025490223</v>
+        <v>0.1590935059756558</v>
       </c>
       <c r="T13">
-        <v>0.0639365802549022</v>
+        <v>0.1590935059756558</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.790021666666667</v>
+        <v>0.8738999999999999</v>
       </c>
       <c r="H14">
-        <v>8.370065</v>
+        <v>2.6217</v>
       </c>
       <c r="I14">
-        <v>0.03784945156141003</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="J14">
-        <v>0.03784945156141001</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.68532233333334</v>
+        <v>2.769264333333334</v>
       </c>
       <c r="N14">
-        <v>59.05596700000001</v>
+        <v>8.307793</v>
       </c>
       <c r="O14">
-        <v>0.5039562241205586</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="P14">
-        <v>0.5039562241205585</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="Q14">
-        <v>54.92247582531723</v>
+        <v>2.4200601009</v>
       </c>
       <c r="R14">
-        <v>494.3022824278551</v>
+        <v>21.7805409081</v>
       </c>
       <c r="S14">
-        <v>0.01907446669392218</v>
+        <v>0.001476078514938353</v>
       </c>
       <c r="T14">
-        <v>0.01907446669392217</v>
+        <v>0.001476078514938353</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.790021666666667</v>
+        <v>0.8738999999999999</v>
       </c>
       <c r="H15">
-        <v>8.370065</v>
+        <v>2.6217</v>
       </c>
       <c r="I15">
-        <v>0.03784945156141003</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="J15">
-        <v>0.03784945156141001</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.484487666666666</v>
+        <v>1.484487666666667</v>
       </c>
       <c r="N15">
-        <v>4.453462999999999</v>
+        <v>4.453463</v>
       </c>
       <c r="O15">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="P15">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="Q15">
-        <v>4.141752753899444</v>
+        <v>1.2972937719</v>
       </c>
       <c r="R15">
-        <v>37.275774785095</v>
+        <v>11.6756439471</v>
       </c>
       <c r="S15">
-        <v>0.001438422499560709</v>
+        <v>0.0007912644250251424</v>
       </c>
       <c r="T15">
-        <v>0.001438422499560708</v>
+        <v>0.0007912644250251424</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.790021666666667</v>
+        <v>0.8738999999999999</v>
       </c>
       <c r="H16">
-        <v>8.370065</v>
+        <v>2.6217</v>
       </c>
       <c r="I16">
-        <v>0.03784945156141003</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="J16">
-        <v>0.03784945156141001</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1249006666666667</v>
+        <v>0.1509683333333333</v>
       </c>
       <c r="N16">
-        <v>0.374702</v>
+        <v>0.452905</v>
       </c>
       <c r="O16">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="P16">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="Q16">
-        <v>0.3484755661811111</v>
+        <v>0.1319312265</v>
       </c>
       <c r="R16">
-        <v>3.13628009563</v>
+        <v>1.1873810385</v>
       </c>
       <c r="S16">
-        <v>0.0001210248715281561</v>
+        <v>8.046942669468954E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001210248715281561</v>
+        <v>8.046942669468954E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.790021666666667</v>
+        <v>0.8738999999999999</v>
       </c>
       <c r="H17">
-        <v>8.370065</v>
+        <v>2.6217</v>
       </c>
       <c r="I17">
-        <v>0.03784945156141003</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="J17">
-        <v>0.03784945156141001</v>
+        <v>0.01063444609734852</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.76686133333333</v>
+        <v>15.54651666666667</v>
       </c>
       <c r="N17">
-        <v>53.30058399999999</v>
+        <v>46.63955</v>
       </c>
       <c r="O17">
-        <v>0.4548424557345857</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="P17">
-        <v>0.4548424557345856</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="Q17">
-        <v>49.56992806866221</v>
+        <v>13.586100915</v>
       </c>
       <c r="R17">
-        <v>446.12935261796</v>
+        <v>122.274908235</v>
       </c>
       <c r="S17">
-        <v>0.01721553749639899</v>
+        <v>0.008286633730690338</v>
       </c>
       <c r="T17">
-        <v>0.01721553749639898</v>
+        <v>0.008286633730690338</v>
       </c>
     </row>
   </sheetData>
